--- a/uploads/Drug_Inventory_200.xlsx
+++ b/uploads/Drug_Inventory_200.xlsx
@@ -1904,7 +1904,7 @@
   <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8355,5 +8355,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>